--- a/target/test-classes/keyou.xlsx
+++ b/target/test-classes/keyou.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="6">
   <si>
     <t>接口编号</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>{"id":111,"create_time":"2019-12-24T22:07:37.641374+08:00","name":"柠檬15501885401","leader":"12122121@qq.com","tester":"12345678","programmer":"12345678","publish_app":"ios","desc":"这是测试信息"}</t>
+  </si>
+  <si>
+    <t>{"non_field_errors":["本站暂未开放注册, 如需演示, 请联系管理员(keyou100@qq.com)!"]}</t>
+  </si>
+  <si>
+    <t>{"detail":"身份认证信息未提供。"}</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1457,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
@@ -1475,10 +1481,10 @@
         <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -1499,10 +1505,10 @@
         <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1523,10 +1529,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -1571,10 +1577,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1667,7 +1673,7 @@
         <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>36</v>
@@ -1713,7 +1719,7 @@
         <v>68</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>36</v>
@@ -1735,7 +1741,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>36</v>
@@ -1759,7 +1765,7 @@
         <v>75</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>36</v>
@@ -1783,10 +1789,10 @@
         <v>79</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
